--- a/config_10.12/shoping_config_cjj.xlsx
+++ b/config_10.12/shoping_config_cjj.xlsx
@@ -10500,10 +10500,10 @@
   <dimension ref="A1:AIG724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X685" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X652" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A709" sqref="A709:XFD724"/>
+      <selection pane="bottomRight" activeCell="Z662" sqref="Z662:AA670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -61089,10 +61089,10 @@
         <v>99999999</v>
       </c>
       <c r="Z662" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA662" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB662" s="30">
         <v>44</v>
@@ -61160,10 +61160,10 @@
         <v>99999999</v>
       </c>
       <c r="Z663" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA663" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB663" s="30">
         <v>44</v>
@@ -61231,10 +61231,10 @@
         <v>99999999</v>
       </c>
       <c r="Z664" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA664" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB664" s="30">
         <v>44</v>
@@ -61302,10 +61302,10 @@
         <v>99999999</v>
       </c>
       <c r="Z665" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA665" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB665" s="30">
         <v>45</v>
@@ -61373,10 +61373,10 @@
         <v>99999999</v>
       </c>
       <c r="Z666" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA666" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB666" s="30">
         <v>45</v>
@@ -61444,10 +61444,10 @@
         <v>99999999</v>
       </c>
       <c r="Z667" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA667" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB667" s="30">
         <v>45</v>
@@ -61515,10 +61515,10 @@
         <v>99999999</v>
       </c>
       <c r="Z668" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA668" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB668" s="30">
         <v>46</v>
@@ -61586,10 +61586,10 @@
         <v>99999999</v>
       </c>
       <c r="Z669" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA669" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB669" s="30">
         <v>46</v>
@@ -61657,10 +61657,10 @@
         <v>99999999</v>
       </c>
       <c r="Z670" s="30">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA670" s="30">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB670" s="30">
         <v>46</v>
